--- a/Тестирование/Таблица Видов треугольника.xlsx
+++ b/Тестирование/Таблица Видов треугольника.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\НЕ ЛЕЗЬ УБЬЁТ\учёба\Учеба 4 курс\studyLastYear\Тестирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\НЕ ЛЕЗЬ УБЬЁТ\учёба\Учеба 4 курс\123\studyLastYear\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331FAD23-AA96-4AD3-BB88-75902D54DDCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACF55E1-A7BF-44C7-AADA-F3F0ABD41D3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EAAF3731-3E51-4555-98EE-1B48864D54A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Программа вывела сообщение "Был введен символ"</t>
   </si>
   <si>
-    <t>Проверка корректности вводимых данных</t>
-  </si>
-  <si>
     <t>Успешно</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>Программа ожидает ввода символа отличного от пробела</t>
-  </si>
-  <si>
-    <t>Проверка корректной работы с равнобедренными треугольниками</t>
   </si>
   <si>
     <t>Программа  вывела сообщение:"Площадь треугольника:54.5436
@@ -108,24 +103,10 @@
 Треугольник разносторонний"</t>
   </si>
   <si>
-    <t>Программа  вывела сообщение:"Площадь треугольника:2.90474
-Треугольник разносторонний"</t>
-  </si>
-  <si>
-    <t>Проверка корректной работы с разносторонними треугольниками</t>
-  </si>
-  <si>
-    <t>Программа  вывела сообщение:"Площадь треугольника:26.8328
-Треугольник разносторонний"</t>
-  </si>
-  <si>
     <t>программа должна:  
 Определить вид треугольника как равносторонний и посчитать его плошадь</t>
   </si>
   <si>
-    <t>Проверка корректной работы с равносторонними треугольниками</t>
-  </si>
-  <si>
     <t>Программа вывела сообщение:"Площадь треугольника:10.8253
 Треугольник равносторонний"</t>
   </si>
@@ -139,13 +120,220 @@
   </si>
   <si>
     <t>Программа должна вывести сообщение:"Треугольник не существует"</t>
+  </si>
+  <si>
+    <t>Предположение об ошибки</t>
+  </si>
+  <si>
+    <t>эквивалентное разбиение</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение :"треугольника не существует"</t>
+  </si>
+  <si>
+    <t>Анализ причинно-следственной связи</t>
+  </si>
+  <si>
+    <t>Анализ граничных значений</t>
+  </si>
+  <si>
+    <t>Программа  вывела сообщение:"Площадь треугольника:1038.8
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>Программа  вывела сообщение:"Площадь треугольника:964.564
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>Программа  вывела сообщение:"Площадь треугольника:902.292
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>Программа должна определить вид треугольнка и посчитать его площадь</t>
+  </si>
+  <si>
+    <t>Программа должна вывести сообщение : "Вы вышли за верхнюю границу предела значений"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение : "Вы вышли за верхнюю границу предела значений"</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>.0.4</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:0.00129687
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:0.0533268
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:0.0125891
+Треугольник разносторонний"</t>
+  </si>
+  <si>
+    <t>50.01</t>
+  </si>
+  <si>
+    <t>Программа должна вывести сообщение :"был введен символ"</t>
+  </si>
+  <si>
+    <t>Предположение об ошибке</t>
+  </si>
+  <si>
+    <t>Программа должна ожидать ввода символа отличного от пробела</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Программа должна выводить
+  тип треугольника как прямоугольный и его полощадь</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:6
+Треугольник прямоугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:30
+Треугольник прямоугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:210
+Треугольник прямоугольный"</t>
+  </si>
+  <si>
+    <t>Программа должна выводить
+  тип треугольника как остроугольный и его полощадь</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:45.1684
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:5.56215
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:14.6969
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>Программа должна выводить
+  тип треугольника как тупоугольный и его полощадь</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:25.1433
+Треугольник тупоугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:44.6339
+Треугольник тупоугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:39.2707
+Треугольник тупоугольный"</t>
+  </si>
+  <si>
+    <t>Программа должна вывести сообщение:"Треугольника не существует"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Треугольника не существует"\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анализ пограничных занчений </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:6.49923e-05
+Треугольник тупоугольный"</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:0.000180931
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:0.06
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:965.337
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:476.693
+Треугольник тупоугольный"</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Площадь треугольника:648.565
+Треугольник остроугольный"</t>
+  </si>
+  <si>
+    <t>50.001</t>
+  </si>
+  <si>
+    <t>Программа вывела сообщение:"Вы вышли за верхнюю границу предела значений"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.001 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +341,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,26 +366,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,409 +723,1476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3059D35F-2EB1-4B32-A0C5-D13DC3CF1248}">
-  <dimension ref="A2:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="85.5703125" customWidth="1"/>
-    <col min="6" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="98.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="65" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>31</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3">
+        <v>33</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="G22:G24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8068B53B-8158-4566-BC43-64C289C8E481}">
+  <dimension ref="A2:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="117.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" t="s">
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" t="s">
+      <c r="C17" s="3">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="B28" s="3">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B29" s="3">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3">
+        <v>31</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="B32" s="3">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="E6:E8"/>
@@ -916,5 +2201,6 @@
     <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>